--- a/wcse2seleniumproject/data/ActitimeTestData.xlsx
+++ b/wcse2seleniumproject/data/ActitimeTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rutuja\git\repository2\wcse2seleniumproject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B393EFE-3565-49F5-9AE1-22CB6422E18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026AC07C-FA2C-49EB-8B12-0DF23F27FA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Validcreds" sheetId="1" r:id="rId1"/>
@@ -91,8 +91,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,7 +408,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -425,66 +426,71 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>